--- a/DOM_Banner/output/dept_banner/Kamaldeep Singh_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Kamaldeep Singh_2023.xlsx
@@ -1393,7 +1393,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2984941165", "https://openalex.org/W1975859778", "https://openalex.org/W2794233632", "https://openalex.org/W3047389731", "https://openalex.org/W2594860815", "https://openalex.org/W2145021085", "https://openalex.org/W2077423437", "https://openalex.org/W3117169687", "https://openalex.org/W3136905963", "https://openalex.org/W2048443503")</t>
+          <t>c("https://openalex.org/W2990101966", "https://openalex.org/W2737319532", "https://openalex.org/W3151405604", "https://openalex.org/W2565797512", "https://openalex.org/W2050308539", "https://openalex.org/W2793648706", "https://openalex.org/W2019096591", "https://openalex.org/W3032012916", "https://openalex.org/W3043187607", "https://openalex.org/W1982849870")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2145021085", "https://openalex.org/W2077423437", "https://openalex.org/W2984941165", "https://openalex.org/W1975859778", "https://openalex.org/W2794233632", "https://openalex.org/W2594860815", "https://openalex.org/W3117169687", "https://openalex.org/W3136905963", "https://openalex.org/W2048443503", "https://openalex.org/W2418638721")</t>
+          <t>c("https://openalex.org/W2990101966", "https://openalex.org/W2737319532", "https://openalex.org/W3151405604", "https://openalex.org/W2565797512", "https://openalex.org/W2050308539", "https://openalex.org/W2793648706", "https://openalex.org/W2019096591", "https://openalex.org/W3032012916", "https://openalex.org/W3043187607", "https://openalex.org/W1982849870")</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2984941165", "https://openalex.org/W1975859778", "https://openalex.org/W2794233632", "https://openalex.org/W3032412722", "https://openalex.org/W2110763175", "https://openalex.org/W1967518124", "https://openalex.org/W3047389731", "https://openalex.org/W2171065062", "https://openalex.org/W2062106937", "https://openalex.org/W2118076063")</t>
+          <t>c("https://openalex.org/W2990101966", "https://openalex.org/W2737319532", "https://openalex.org/W3151405604", "https://openalex.org/W2565797512", "https://openalex.org/W2050308539", "https://openalex.org/W2793648706", "https://openalex.org/W2019096591", "https://openalex.org/W3032012916", "https://openalex.org/W3043187607", "https://openalex.org/W1982849870")</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2984941165", "https://openalex.org/W1975859778", "https://openalex.org/W2794233632", "https://openalex.org/W2594860815", "https://openalex.org/W3117169687", "https://openalex.org/W3136905963", "https://openalex.org/W2048443503", "https://openalex.org/W2086809547", "https://openalex.org/W2145021085", "https://openalex.org/W2077423437")</t>
+          <t>c("https://openalex.org/W3208662108", "https://openalex.org/W2990101966", "https://openalex.org/W2737319532", "https://openalex.org/W3151405604", "https://openalex.org/W2565797512", "https://openalex.org/W2050308539", "https://openalex.org/W2793648706", "https://openalex.org/W2019096591", "https://openalex.org/W3032012916", "https://openalex.org/W3043187607")</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2794233632", "https://openalex.org/W2594860815", "https://openalex.org/W3117169687", "https://openalex.org/W3136905963", "https://openalex.org/W2048443503", "https://openalex.org/W2086809547", "https://openalex.org/W2145021085", "https://openalex.org/W2077423437", "https://openalex.org/W2984941165", "https://openalex.org/W1975859778")</t>
+          <t>c("https://openalex.org/W2990101966", "https://openalex.org/W2737319532", "https://openalex.org/W3151405604", "https://openalex.org/W2565797512", "https://openalex.org/W2050308539", "https://openalex.org/W2793648706", "https://openalex.org/W2019096591", "https://openalex.org/W3032012916", "https://openalex.org/W3043187607", "https://openalex.org/W1982849870")</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Kamaldeep Singh_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Kamaldeep Singh_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>ICAR-Directorate of Rapeseed Mustard Research; ICAR-National Institute for Plant Biotechnology, IARI, New Delhi, India; ICAR-Directorate of Rapeseed Mustard Research, Sewar, Bharatpur, India</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319872837</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Phenotypic characterization and resistance response to Sclerotinia sclerotiorum of backcross lines developed from stable allohexaploids of Sinapis alba + Brassica juncea</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Euphytica</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10681-023-03160-x</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10681-023-03160-x</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -524,80 +534,85 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dr.Lalit Kumar, Rahul Mittal, Akhil Bhalla, Ashwani Kumar, Hritik Madan, Kushagra Pandhi, Yukta Garg, Kamaldeep Singh, Arpit Jain, Surya Rana</t>
+          <t>Preetesh Kumari, Kamaldeep Singh, Pramod Kumar</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367555044</t>
+          <t>ICAR-National Institute for Plant Biotechnology, IARI, Pusa Campus, New Delhi, India; ICAR-Directorate of Rapeseed Mustard Research, Sewar, Bharatpur, India; ICAR-Directorate of Rapeseed Mustard Research, Sewar, Bharatpur, India</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Knowledge and Awareness About Diabetes Mellitus Among Urban and Rural Population Attending a Tertiary Care Hospital in Haryana</t>
+          <t>https://openalex.org/W4381513590</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>Identification of new resistance source for Sclerotinia stem rot in backcross population of B. juncea + S. alba allohexaploids: key to manage disease through host resistance</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cureus</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cureus, Inc.</t>
+          <t>Euphytica</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.38359</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1007/s10681-023-03208-y</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37266052</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7759/cureus.38359</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10681-023-03208-y</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,42 +621,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Preetesh Kumari, Kamaldeep Singh, Pramod Kumar</t>
+          <t>Dr.Lalit Kumar, Rahul Mittal, Akhil Bhalla, Ashwani Kumar, Hritik Madan, Kushagra Pandhi, Yukta Garg, Kamaldeep Singh, Arpit Jain, Surya Rana</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381513590</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Identification of new resistance source for Sclerotinia stem rot in backcross population of B. juncea + S. alba allohexaploids: key to manage disease through host resistance</t>
+          <t>https://openalex.org/W4367555044</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>Knowledge and Awareness About Diabetes Mellitus Among Urban and Rural Population Attending a Tertiary Care Hospital in Haryana</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Euphytica</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>Cureus</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10681-023-03208-y</t>
+          <t>Cureus, Inc.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.7759/cureus.38359</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10681-023-03208-y</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37266052</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.38359</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4320735546</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Comparison of the Radiological and Functional Outcome of Proximal Femoral Nail with Helical Blade versus Lag Screw in Intertrochanteric Fractures</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of orthopaedics and sports medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.26502/josm.511500078</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.26502/josm.511500078</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,24 +800,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361819364</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Supplementary Figure 3 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -800,50 +825,55 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22389456.v1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22389456.v1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,24 +887,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361819759</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Supplementary Figure 2 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,50 +912,55 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22389459.v1</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22389459.v1</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,24 +974,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361819995</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Supplementary Figure 4 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,50 +999,55 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22389453.v1</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22389453.v1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,24 +1061,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361827587</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Supplementary Figure 1 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,50 +1086,55 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22389462.v1</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22389462.v1</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,24 +1148,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362240209</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Supplementary Figure 3 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1128,50 +1173,55 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22389456</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22389456</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,24 +1235,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362240427</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Supplementary Figure 1 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1210,50 +1260,55 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22389462</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22389462</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,24 +1322,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362240447</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Supplementary Figure Legends 1-4 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1292,50 +1347,55 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22389450</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22389450</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,24 +1409,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362240719</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Supplementary Figure 2 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1374,50 +1434,55 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22389459</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22389459</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,24 +1496,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362240767</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Supplementary Table 1 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1456,50 +1521,55 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22389447</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22389447</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,24 +1583,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362240911</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Supplementary Figure 4 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1538,50 +1608,55 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/0008-5472.22389453</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/0008-5472.22389453</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,80 +1665,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shahana Majid, Sharanjot Saini, Altaf A. Dar, Hiroshi Hirata, Varahram Shahryari, Yuichiro Tanaka, Soichiro Yamamura, Koichi Ueno, Mohd Saif Zaman, Kamaldeep Singh, Inik Chang, Guoren Deng, Rajvir Dahiya</t>
+          <t>Kamaldeep Singh, Arpit Jain, Ishita Panchal, Hritik Madan, Salil Chaturvedi, Anastas Kostojchin, Ambreen Shahzadi, Muzammil Khan, Shobhit Piplani</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362417904</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Supplementary Table 1 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
+          <t>https://openalex.org/W4367368728</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>Smartphones and Consumer Devices in Management of Obstructive Sleep Apnea</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The Indian Journal of Sleep Medicine</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22389447.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.5005/jp-journals-10069-0108</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22389447.v1</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5005/jp-journals-10069-0108</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shahana Majid, Sharanjot Saini, Altaf A. Dar, Hiroshi Hirata, Varahram Shahryari, Yuichiro Tanaka, Soichiro Yamamura, Koichi Ueno, Mohd Saif Zaman, Kamaldeep Singh, Inik Chang, Guoren Deng, Rajvir Dahiya</t>
+          <t>Kala Shrestha, Niranjan Thapa, Sunil Basukala, Manisha Acharya, Bibek Bhulan, Kamaldeep Singh, Oshan Shrestha, Kabita Chaudhary, Milan Neupane</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362418360</t>
+          <t>Nepalese Army Institute of Health Sciences; Shree Birendra Hospital; Nepalese Army Institute of Health Sciences College of Medicine; Nepalese Army Institute of Health Sciences College of Medicine; Nepalese Army Institute of Health Sciences College of Medicine; Nepalese Army Institute of Health Sciences College of Medicine; Nepalese Army Institute of Health Sciences; Shree Birendra Hospital; Nepalese Army Institute of Health Sciences</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legends 1-4 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
+          <t>https://openalex.org/W4381376949</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>An uncommon cause of sub-acute intestinal obstruction in a young adult: Wilkie’s syndrome</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Authorea (Authorea)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22389450.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.22541/au.168723186.62713165/v1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22389450.v1</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22541/au.168723186.62713165/v1</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,80 +1839,85 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lukman Ahmed, Shruti Sawhney, Kamaldeep Singh</t>
+          <t>Divya Sharma, Paras Choudhary, RajeshD Mehta, Kamaldeep Singh, Vikas Mahla, BhikamC Ghiya, Ashok Dhanwal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4366827772</t>
+          <t>Department of Skin and V.D., Mittal Hospital and Research Centre, Ajmer, India; Department of Skin and V.D., Chirayu Hospital, Jaipur, India; Department of Skin and V.D., Sardar Patel Medical College, Bikaner, India; Department of Orthopaedics, Manipal Hospital, Jaipur, India; Department of Skin and V.D., VC Skin Clinic, Jaipur, India; Department of Skin and V.D., Sardar Patel Medical College, Bikaner, India; Department of Skin and V.D., S.K. Hospital, Sikar, Rajasthan, India</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Effects of memory dependent heat transfer on the Rayleigh wave propagation in non-local micropolar thermoelastic medium</t>
+          <t>https://openalex.org/W4382994471</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-04-24</t>
+          <t>Early neonatal dermatoses: An epidemiological study from a tertiary care center in Western Rajasthan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>Journal of Dermatology and Dermatologic Surgery</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-2835247/v1</t>
+          <t>Medknow</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.4103/jdds.jdds_89_21</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by-nc-sa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21203/rs.3.rs-2835247/v1</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4103/jdds.jdds_89_21</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,80 +1926,85 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kamaldeep Singh, Arpit Jain, Ishita Panchal, Hritik Madan, Salil Chaturvedi, Anastas Kostojchin, Ambreen Shahzadi, Muzammil Khan, Shobhit Piplani</t>
+          <t>Kamaldeep Singh, Mayank Kashyap</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367368728</t>
+          <t>Department of Mathematics, Lovely Professional University, 144411, Phagwara, Punjab, India; Department of Mathematics, Lovely Professional University, 144411, Phagwara, Punjab, India</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Smartphones and Consumer Devices in Management of Obstructive Sleep Apnea</t>
+          <t>https://openalex.org/W4385454468</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-04-29</t>
+          <t>Memory Effects on Rayleigh Waves Propagation in a Micropolar Thermoelastic Half Space</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The Indian Journal of Sleep Medicine</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mechanics of Solids</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5005/jp-journals-10069-0108</t>
+          <t>Pleiades Publishing</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3103/s0025654423600228</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5005/jp-journals-10069-0108</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3103/s0025654423600228</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1918,80 +2013,85 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kala Shrestha, Niranjan Thapa, Sunil Basukala, Manisha Acharya, Bibek Bhulan, Kamaldeep Singh, Oshan Shrestha, Kabita Chaudhary, Milan Neupane</t>
+          <t>Shruti Sawhney, Kamaldeep Singh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381376949</t>
+          <t>Department of Mathematics, Lovely Professional University, Phagwara, India; Department of Mathematics, Lovely Professional University, Phagwara, India</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>An uncommon cause of sub-acute intestinal obstruction in a young adult: Wilkie’s syndrome</t>
+          <t>https://openalex.org/W4386950482</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>Effects of Nonlocal Characteristics of Composite Material on Shear Waves Propagation with an Imperfect Interface</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Authorea (Authorea)</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>International Journal of Applied and Computational Mathematics</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22541/au.168723186.62713165/v1</t>
+          <t>Springer Nature</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1007/s40819-023-01589-1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.22541/au.168723186.62713165/v1</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s40819-023-01589-1</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,80 +2100,85 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Divya Sharma, Paras Choudhary, RajeshD Mehta, Kamaldeep Singh, Vikas Mahla, BhikamC Ghiya, Ashok Dhanwal</t>
+          <t>Alok Singh Jadaun, Dinesh K. Sharma, Kamaldeep Singh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382994471</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Early neonatal dermatoses: An epidemiological study from a tertiary care center in Western Rajasthan</t>
+          <t>https://openalex.org/W4388563823</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Automatic detection and classification of plant leaf diseases using image processing: A survey</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Journal of Dermatology and Dermatologic Surgery</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Medknow</t>
+          <t>AIP Conference Proceedings</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4103/jdds.jdds_89_21</t>
+          <t>American Institute of Physics</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cc-by-nc-sa</t>
+          <t>https://doi.org/10.1063/5.0175354</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4103/jdds.jdds_89_21</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1063/5.0175354</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,42 +2187,42 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kamaldeep Singh, Mayank Kashyap</t>
+          <t>Preetesh Kumari, Kamaldeep Singh, Pramod Kumar</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385454468</t>
+          <t>Genetics Division, ICAR-Indian Agricultural Research Institute, Pusa campus, New Delhi, 110012, India; ICAR-Directorate of Rapeseed Mustard Research, Sewar, Bharatpur, 321303, India; ICAR-Directorate of Rapeseed Mustard Research, Sewar, Bharatpur, 321303, India</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Memory Effects on Rayleigh Waves Propagation in a Micropolar Thermoelastic Half Space</t>
+          <t>https://openalex.org/W4389625390</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>Deciphering the genetic architecture of plant height and main shoot length in backcross introgression lines of Sinapis alba + Brassica juncea allohexaploids</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mechanics of Solids</t>
+          <t>2023-12-12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pleiades Publishing</t>
+          <t>Euphytica</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3103/s0025654423600228</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1007/s10681-023-03271-5</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2127,35 +2232,40 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3103/s0025654423600228</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10681-023-03271-5</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2164,80 +2274,85 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shruti Sawhney, Kamaldeep Singh</t>
+          <t>Shahana Majid, Sharanjot Saini, Altaf A. Dar, Hiroshi Hirata, Varahram Shahryari, Yuichiro Tanaka, Soichiro Yamamura, Koichi Ueno, Mohd Saif Zaman, Kamaldeep Singh, Inik Chang, Guoren Deng, Rajvir Dahiya</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386950482</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Effects of Nonlocal Characteristics of Composite Material on Shear Waves Propagation with an Imperfect Interface</t>
+          <t>https://openalex.org/W4362417904</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>Supplementary Table 1 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>International Journal of Applied and Computational Mathematics</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Springer Nature</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s40819-023-01589-1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22389447.v1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s40819-023-01589-1</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22389447.v1</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2246,80 +2361,85 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mark M. Aloysius, Mark A. Korsten, Miroslav Radulovic, Kamaldeep Singh, Brian Lyons, Tradd Cummings, Joshua C. Hobson, Sandeep Kahal, Ann M. Spungen, William A. Bauman</t>
+          <t>Shahana Majid, Sharanjot Saini, Altaf A. Dar, Hiroshi Hirata, Varahram Shahryari, Yuichiro Tanaka, Soichiro Yamamura, Koichi Ueno, Mohd Saif Zaman, Kamaldeep Singh, Inik Chang, Guoren Deng, Rajvir Dahiya</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387003072</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lack of improvement in anorectal manometry parameters after implementation of a pelvic floor/anal sphincter biofeedback in persons with motor‐incomplete spinal cord injury</t>
+          <t>https://openalex.org/W4362418360</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>Supplementary Figure Legends 1-4 from MicroRNA-205 Inhibits Src-Mediated Oncogenic Pathways in Renal Cancer</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Neurogastroenterology and Motility</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/nmo.14667</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22389450.v1</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37743783</t>
-        </is>
-      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/nmo.14667</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22389450.v1</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2328,80 +2448,85 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Alok Singh Jadaun, Dinesh K. Sharma, Kamaldeep Singh</t>
+          <t>Lukman Ahmed, Shruti Sawhney, Kamaldeep Singh</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388563823</t>
+          <t>Lovely Professional University; Lovely Professional University; Lovely Professional University</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Automatic detection and classification of plant leaf diseases using image processing: A survey</t>
+          <t>https://openalex.org/W4366827772</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Effects of memory dependent heat transfer on the Rayleigh wave propagation in non-local micropolar thermoelastic medium</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AIP Conference Proceedings</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>American Institute of Physics</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/5.0175354</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.21203/rs.3.rs-2835247/v1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1063/5.0175354</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21203/rs.3.rs-2835247/v1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2410,42 +2535,42 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Preetesh Kumari, Kamaldeep Singh, Pramod Kumar</t>
+          <t>Mark M. Aloysius, Mark A. Korsten, Miroslav Radulovic, Kamaldeep Singh, Brian Lyons, Tradd Cummings, Joshua C. Hobson, Sandeep Kahal, Ann M. Spungen, William A. Bauman</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389625390</t>
+          <t>Department of Medicine, Geisinger Commonwealth School of Medicine, Scranton, Pennsylvania, USA; Department of Medicine, The Wright Center for Graduate Medical Education, Scranton, Pennsylvania, USA; Department of Medicine, The Icahn School of Medicine at Mount Sinai, New York, New York, USA.; National Center for Medical Consequences of Spinal Cord Injury, James J Peters VA Medical Center, Bronx, New York, USA.; Department of Medicine, The Icahn School of Medicine at Mount Sinai, New York, New York, USA.; National Center for Medical Consequences of Spinal Cord Injury, James J Peters VA Medical Center, Bronx, New York, USA.; Department of Medicine, College of Medicine, Tucson, Arizona, USA.; National Center for Medical Consequences of Spinal Cord Injury, James J Peters VA Medical Center, Bronx, New York, USA.; Bristol Myer's Squibb, Stroudsburg, Pennsylvania, USA.; National Center for Medical Consequences of Spinal Cord Injury, James J Peters VA Medical Center, Bronx, New York, USA.; Department of Neurology, University of Pittsburgh, Pittsburgh, Pennsylvania, USA.; Department of Medicine, The Icahn School of Medicine at Mount Sinai, New York, New York, USA.; National Center for Medical Consequences of Spinal Cord Injury, James J Peters VA Medical Center, Bronx, New York, USA.; Department of Medicine, The Icahn School of Medicine at Mount Sinai, New York, New York, USA.; National Center for Medical Consequences of Spinal Cord Injury, James J Peters VA Medical Center, Bronx, New York, USA.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Deciphering the genetic architecture of plant height and main shoot length in backcross introgression lines of Sinapis alba + Brassica juncea allohexaploids</t>
+          <t>https://openalex.org/W4387003072</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>Lack of improvement in anorectal manometry parameters after implementation of a pelvic floor/anal sphincter biofeedback in persons with motor‐incomplete spinal cord injury</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Euphytica</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>Neurogastroenterology and Motility</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10681-023-03271-5</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1111/nmo.14667</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2455,35 +2580,40 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10681-023-03271-5</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37743783</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/nmo.14667</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
